--- a/fichiers_xls/test_doublons.xlsx
+++ b/fichiers_xls/test_doublons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>

--- a/fichiers_xls/test_doublons.xlsx
+++ b/fichiers_xls/test_doublons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>

--- a/fichiers_xls/test_doublons.xlsx
+++ b/fichiers_xls/test_doublons.xlsx
@@ -4,11 +4,14 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="result" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="to_copy" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -64,7 +67,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000a933"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -81,13 +85,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -95,6 +102,18 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -110,7 +129,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,41 +213,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -234,243 +255,135 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -480,494 +393,501 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="8.550000000000001" customWidth="1" style="7" min="1" max="8"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="3">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="8">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Nom</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Prénom</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>Adresse de courriel</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>État</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>Temps utilisé</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>Note/10,00</t>
         </is>
       </c>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="5" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="G1" s="9" t="n"/>
+      <c r="H1" s="10" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="8">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>Aatif Mieulet</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t>Paola</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="9" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
         <is>
           <t>8 min 33 s</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="9" t="inlineStr">
         <is>
           <t>7,16</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="G2" s="9" t="n"/>
+      <c r="H2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="8">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>Abbas</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>Zina</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>5 min 15 s</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>7,28</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="5" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="G3" s="9" t="n"/>
+      <c r="H3" s="10" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="8">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>Abdel Moneim</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>Yasmine</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="9" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
         <is>
           <t>7 min 22 s</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="9" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="G4" s="9" t="n"/>
+      <c r="H4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="8">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>Abdelali</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>Yasmine</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="9" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
         <is>
           <t>7 min 44 s</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="9" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="5" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="G5" s="9" t="n"/>
+      <c r="H5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="8">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>Abdallah</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>Aboubaker</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
         <is>
           <t>7 min 57 s</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="7" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="G6" s="11" t="n"/>
+      <c r="H6" s="12" t="n"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="8">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>Abdelgow</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>Hassan Mahamat</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
         <is>
           <t>23 min 37 s</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="9" t="inlineStr">
         <is>
           <t>7,52</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n"/>
-      <c r="H7" s="5" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="G7" s="9" t="n"/>
+      <c r="H7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="8">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>Abdelhadi</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="9" t="inlineStr">
         <is>
           <t>Nouh</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
         <is>
           <t>9 min 27 s</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="9" t="inlineStr">
         <is>
           <t>7,35</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n"/>
-      <c r="H8" s="5" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="3">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="8">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>Abdenbaoui</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>Iness</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>iness.abdenbaoui@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>10 min 33 s</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n"/>
-      <c r="H9" s="5" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="3">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="8">
+      <c r="A10" s="9" t="inlineStr">
         <is>
           <t>Abdulhoussen</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t>Houzefa</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>houzefa.abdulhoussen@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>5 min 49 s</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n"/>
-      <c r="H10" s="5" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="3">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="8">
+      <c r="A11" s="9" t="inlineStr">
         <is>
           <t>Abed Meraim</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Zakaria</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>20221641@etud.univ-evry.fr</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>9 min 14 s</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr">
         <is>
           <t>7,70</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n"/>
-      <c r="H11" s="5" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="3">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="9" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="8">
+      <c r="A12" s="9" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>Rodolphe</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>rodolphe.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
         <is>
           <t>15 min 32 s</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n"/>
-      <c r="H12" s="5" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="3">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="G12" s="9" t="n"/>
+      <c r="H12" s="9" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="8">
+      <c r="A13" s="9" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="9" t="inlineStr">
         <is>
           <t>Christian</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>christian.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>21 min 49 s</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="9" t="inlineStr">
         <is>
           <t>6,72</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n"/>
-      <c r="H13" s="5" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="3">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="G13" s="9" t="n"/>
+      <c r="H13" s="9" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="8">
+      <c r="A14" s="11" t="inlineStr">
         <is>
           <t>Abdelkarim</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="11" t="inlineStr">
         <is>
           <t>Yacine</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E14" s="6" t="inlineStr">
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="inlineStr">
         <is>
           <t>4 min 17 s</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
+      <c r="F14" s="11" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
-      <c r="G14" s="8" t="n"/>
-      <c r="H14" s="8" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="3"/>
-    <row r="16" ht="15" customHeight="1" s="3"/>
-    <row r="17" ht="15" customHeight="1" s="3"/>
-    <row r="18" ht="13.8" customHeight="1" s="3"/>
+      <c r="G14" s="13" t="n"/>
+      <c r="H14" s="13" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="8">
+      <c r="B15" s="7">
+        <f>F13+F14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="8"/>
+    <row r="17" ht="13.5" customHeight="1" s="8"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -981,492 +901,2117 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="8.550000000000001" customWidth="1" style="7" min="1" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1" s="8">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Prénom</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Adresse de courriel</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>État</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Temps utilisé</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Note/10,00</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="n"/>
+      <c r="H1" s="10" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="8">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>Aatif Mieulet</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>Paola</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>8 min 33 s</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>7,16</t>
+        </is>
+      </c>
+      <c r="G2" s="9" t="n"/>
+      <c r="H2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="8">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>Abbas</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Zina</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>zina.abbas@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>5 min 15 s</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>7,28</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="n"/>
+      <c r="H3" s="10" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="8">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>Abdel Moneim</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>Yasmine</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>7 min 22 s</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G4" s="9" t="n"/>
+      <c r="H4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="8">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>Abdelali</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>Yasmine</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>yasmine.abdelali@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>7 min 44 s</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G5" s="9" t="n"/>
+      <c r="H5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="8">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>Abdallah</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>Aboubaker</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>7 min 57 s</t>
+        </is>
+      </c>
+      <c r="F6" s="11" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="G6" s="11" t="n"/>
+      <c r="H6" s="12" t="n"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="8">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>Abdelgow</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>Hassan Mahamat</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>23 min 37 s</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>7,52</t>
+        </is>
+      </c>
+      <c r="G7" s="9" t="n"/>
+      <c r="H7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="8">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>Abdelhadi</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>Nouh</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>9 min 27 s</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>7,35</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="8">
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>Abdenbaoui</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>Iness</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>iness.abdenbaoui@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>10 min 33 s</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="8">
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>Abdulhoussen</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="inlineStr">
+        <is>
+          <t>Houzefa</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>houzefa.abdulhoussen@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>5 min 49 s</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="8">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>Abed Meraim</t>
+        </is>
+      </c>
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>Zakaria</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>20221641@etud.univ-evry.fr</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>9 min 14 s</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>7,70</t>
+        </is>
+      </c>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="9" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="8">
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>Abi Rizk</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>Rodolphe</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>rodolphe.abi-rizk@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>15 min 32 s</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>8,88</t>
+        </is>
+      </c>
+      <c r="G12" s="9" t="n"/>
+      <c r="H12" s="9" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="8">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>Abi Rizk</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="inlineStr">
+        <is>
+          <t>christian.abi-rizk@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>21 min 49 s</t>
+        </is>
+      </c>
+      <c r="F13" s="9" t="inlineStr">
+        <is>
+          <t>6,72</t>
+        </is>
+      </c>
+      <c r="G13" s="9" t="n"/>
+      <c r="H13" s="9" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="8">
+      <c r="A14" s="11" t="inlineStr">
+        <is>
+          <t>Abdelkarim</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="inlineStr">
+        <is>
+          <t>Yacine</t>
+        </is>
+      </c>
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>4 min 17 s</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>8,88</t>
+        </is>
+      </c>
+      <c r="G14" s="13" t="n"/>
+      <c r="H14" s="13" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="8">
+      <c r="B15" s="7">
+        <f>F13+F14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="8"/>
+    <row r="17" ht="13.5" customHeight="1" s="8"/>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;KffffffPage &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="8.550000000000001" customWidth="1" style="7" min="1" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1" s="8">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Prénom</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Adresse de courriel</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>État</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Temps utilisé</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Note/10,00</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="n"/>
+      <c r="H1" s="10" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="8">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>Aatif Mieulet</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>Paola</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>8 min 33 s</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>7,16</t>
+        </is>
+      </c>
+      <c r="G2" s="9" t="n"/>
+      <c r="H2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="8">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>Abbas</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Zina</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>zina.abbas@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>5 min 15 s</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>7,28</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="n"/>
+      <c r="H3" s="10" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="8">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>Abdel Moneim</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>Yasmine</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>7 min 22 s</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G4" s="9" t="n"/>
+      <c r="H4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="8">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>Abdelali</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>Yasmine</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>yasmine.abdelali@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>7 min 44 s</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G5" s="9" t="n"/>
+      <c r="H5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="8">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>Abdallah</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>Aboubaker</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>7 min 57 s</t>
+        </is>
+      </c>
+      <c r="F6" s="11" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="G6" s="11" t="n"/>
+      <c r="H6" s="12" t="n"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="8">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>Abdelgow</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>Hassan Mahamat</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>23 min 37 s</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>7,52</t>
+        </is>
+      </c>
+      <c r="G7" s="9" t="n"/>
+      <c r="H7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="8">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>Abdelhadi</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>Nouh</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>9 min 27 s</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>7,35</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="8">
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>Abdenbaoui</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>Iness</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>iness.abdenbaoui@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>10 min 33 s</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="8">
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>Abdulhoussen</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="inlineStr">
+        <is>
+          <t>Houzefa</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>houzefa.abdulhoussen@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>5 min 49 s</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="8">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>Abed Meraim</t>
+        </is>
+      </c>
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>Zakaria</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>20221641@etud.univ-evry.fr</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>9 min 14 s</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>7,70</t>
+        </is>
+      </c>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="9" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="8">
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>Abi Rizk</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>Rodolphe</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>rodolphe.abi-rizk@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>15 min 32 s</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>8,88</t>
+        </is>
+      </c>
+      <c r="G12" s="9" t="n"/>
+      <c r="H12" s="9" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="8">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>Abi Rizk</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="inlineStr">
+        <is>
+          <t>christian.abi-rizk@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>21 min 49 s</t>
+        </is>
+      </c>
+      <c r="F13" s="9" t="inlineStr">
+        <is>
+          <t>6,72</t>
+        </is>
+      </c>
+      <c r="G13" s="9" t="n"/>
+      <c r="H13" s="9" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="8">
+      <c r="A14" s="11" t="inlineStr">
+        <is>
+          <t>Abdelkarim</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="inlineStr">
+        <is>
+          <t>Yacine</t>
+        </is>
+      </c>
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>4 min 17 s</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>8,88</t>
+        </is>
+      </c>
+      <c r="G14" s="13" t="n"/>
+      <c r="H14" s="13" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="8">
+      <c r="B15" s="7">
+        <f>F13+F14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="8"/>
+    <row r="17" ht="13.5" customHeight="1" s="8"/>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;KffffffPage &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="3">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="8">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Nom</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Prénom</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>Adresse de courriel</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>État</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>Temps utilisé</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>Note/10,00</t>
         </is>
       </c>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="5" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="G1" s="9" t="n"/>
+      <c r="H1" s="10" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="8">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>Aatif Mieulet</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t>Paola</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="9" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
         <is>
           <t>8 min 33 s</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="9" t="inlineStr">
         <is>
           <t>7,16</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="G2" s="9" t="n"/>
+      <c r="H2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="8">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>Abbas</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>Zina</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>5 min 15 s</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>7,28</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="5" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="G3" s="9" t="n"/>
+      <c r="H3" s="10" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="8">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>Abdel Moneim</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>Yasmine</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="9" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
         <is>
           <t>7 min 22 s</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="9" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="G4" s="9" t="n"/>
+      <c r="H4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="8">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>Abdelali</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>Yasmine</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="9" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
         <is>
           <t>7 min 44 s</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="9" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="5" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="G5" s="9" t="n"/>
+      <c r="H5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="8">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>Abdallah</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Aboubaker</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
         <is>
           <t>7 min 57 s</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="9" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="5" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="G6" s="9" t="n"/>
+      <c r="H6" s="10" t="n"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="8">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>Abdelgow</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>Hassan Mahamat</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
         <is>
           <t>23 min 37 s</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="9" t="inlineStr">
         <is>
           <t>7,52</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n"/>
-      <c r="H7" s="5" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="G7" s="9" t="n"/>
+      <c r="H7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="8">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>Abdelhadi</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="9" t="inlineStr">
         <is>
           <t>Nouh</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
         <is>
           <t>9 min 27 s</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="9" t="inlineStr">
         <is>
           <t>7,35</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n"/>
-      <c r="H8" s="5" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="3">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="8">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>Abdenbaoui</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>Iness</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>iness.abdenbaoui@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>10 min 33 s</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n"/>
-      <c r="H9" s="5" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="3">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="8">
+      <c r="A10" s="9" t="inlineStr">
         <is>
           <t>Abdulhoussen</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t>Houzefa</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>houzefa.abdulhoussen@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>5 min 49 s</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n"/>
-      <c r="H10" s="5" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="3">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="8">
+      <c r="A11" s="9" t="inlineStr">
         <is>
           <t>Abed Meraim</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Zakaria</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>20221641@etud.univ-evry.fr</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>9 min 14 s</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr">
         <is>
           <t>7,70</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n"/>
-      <c r="H11" s="4" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="3">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="9" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="8">
+      <c r="A12" s="9" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>Rodolphe</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>rodolphe.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
         <is>
           <t>15 min 32 s</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n"/>
-      <c r="H12" s="4" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="3">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="G12" s="9" t="n"/>
+      <c r="H12" s="9" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="8">
+      <c r="A13" s="9" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="9" t="inlineStr">
         <is>
           <t>Christian</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>christian.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>21 min 49 s</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="9" t="inlineStr">
         <is>
           <t>6,72</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n"/>
-      <c r="H13" s="4" t="n"/>
-    </row>
-    <row r="14" ht="13.8" customHeight="1" s="3">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="G13" s="9" t="n"/>
+      <c r="H13" s="9" t="n"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="8">
+      <c r="A14" s="9" t="inlineStr">
         <is>
           <t>Abdelkarim</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="9" t="inlineStr">
         <is>
           <t>Yacine</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
         <is>
           <t>4 min 17 s</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="9" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
     </row>
-    <row r="1048576" ht="12.8" customHeight="1" s="3"/>
+    <row r="15" ht="15" customHeight="1" s="8">
+      <c r="B15" s="7">
+        <f>F13+F14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1048567" ht="12.75" customHeight="1" s="8"/>
+    <row r="1048568" ht="12.75" customHeight="1" s="8"/>
+    <row r="1048569" ht="12.75" customHeight="1" s="8"/>
+    <row r="1048570" ht="12.75" customHeight="1" s="8"/>
+    <row r="1048571" ht="12.75" customHeight="1" s="8"/>
+    <row r="1048572" ht="12.75" customHeight="1" s="8"/>
+    <row r="1048573" ht="12.75" customHeight="1" s="8"/>
+    <row r="1048574" ht="12.75" customHeight="1" s="8"/>
+    <row r="1048575" ht="12.75" customHeight="1" s="8"/>
+    <row r="1048576" ht="12.75" customHeight="1" s="8"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="8.550000000000001" customWidth="1" style="7" min="1" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1" s="8">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Prénom</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Adresse de courriel</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>État</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Temps utilisé</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Note/10,00</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="n"/>
+      <c r="H1" s="10" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="8">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>Aatif Mieulet</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>Paola</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>8 min 33 s</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>7,16</t>
+        </is>
+      </c>
+      <c r="G2" s="9" t="n"/>
+      <c r="H2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="8">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>Abbas</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Zina</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>zina.abbas@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>5 min 15 s</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>7,28</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="n"/>
+      <c r="H3" s="10" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="8">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>Abdel Moneim</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>Yasmine</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>7 min 22 s</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G4" s="9" t="n"/>
+      <c r="H4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="8">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>Abdallah</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>Aboubaker</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>7 min 57 s</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="G5" s="9" t="n"/>
+      <c r="H5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="8">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>Abdelali</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>Yasmine</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>yasmine.abdelali@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>7 min 44 s</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G6" s="9" t="n"/>
+      <c r="H6" s="10" t="n"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="8">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>Abdallah</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>Aboubaker</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>7 min 57 s</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="G7" s="9" t="n"/>
+      <c r="H7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="8">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>Abdelgow</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>Hassan Mahamat</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>23 min 37 s</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>7,52</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="8">
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>Abdelhadi</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>Nouh</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>9 min 27 s</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>7,35</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="8">
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>Abdenbaoui</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="inlineStr">
+        <is>
+          <t>Iness</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>iness.abdenbaoui@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>10 min 33 s</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="8">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>Abdulhoussen</t>
+        </is>
+      </c>
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>Houzefa</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>houzefa.abdulhoussen@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>5 min 49 s</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="8">
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>Abdelkarim</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>Yacine</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>4 min 17 s</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>8,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="8">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>Abed Meraim</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="inlineStr">
+        <is>
+          <t>Zakaria</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="inlineStr">
+        <is>
+          <t>20221641@etud.univ-evry.fr</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>9 min 14 s</t>
+        </is>
+      </c>
+      <c r="F13" s="9" t="inlineStr">
+        <is>
+          <t>7,70</t>
+        </is>
+      </c>
+      <c r="G13" s="9" t="n"/>
+      <c r="H13" s="9" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="8">
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>Abi Rizk</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>Rodolphe</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>rodolphe.abi-rizk@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>15 min 32 s</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>8,88</t>
+        </is>
+      </c>
+      <c r="G14" s="9" t="n"/>
+      <c r="H14" s="9" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="8">
+      <c r="A15" s="9" t="inlineStr">
+        <is>
+          <t>Abi Rizk</t>
+        </is>
+      </c>
+      <c r="B15" s="9" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>christian.abi-rizk@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>21 min 49 s</t>
+        </is>
+      </c>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>6,72</t>
+        </is>
+      </c>
+      <c r="G15" s="9" t="n"/>
+      <c r="H15" s="9" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="8">
+      <c r="A16" s="9" t="inlineStr">
+        <is>
+          <t>Abdelkarim</t>
+        </is>
+      </c>
+      <c r="B16" s="9" t="inlineStr">
+        <is>
+          <t>Yacine</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="inlineStr">
+        <is>
+          <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E16" s="9" t="inlineStr">
+        <is>
+          <t>4 min 17 s</t>
+        </is>
+      </c>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>8,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="8">
+      <c r="B17" s="7">
+        <f>F15+F16</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;KffffffPage &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/fichiers_xls/test_doublons.xlsx
+++ b/fichiers_xls/test_doublons.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -68,7 +68,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -91,7 +90,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -102,15 +101,6 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -129,9 +119,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,499 +383,499 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="8.550000000000001" customWidth="1" style="7" min="1" max="8"/>
+    <col width="8.550000000000001" customWidth="1" style="4" min="1" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="8">
-      <c r="A1" s="9" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Nom</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Prénom</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Adresse de courriel</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>État</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Temps utilisé</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Note/10,00</t>
         </is>
       </c>
-      <c r="G1" s="9" t="n"/>
-      <c r="H1" s="10" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="8">
-      <c r="A2" s="9" t="inlineStr">
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="7" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="5">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Aatif Mieulet</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Paola</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>8 min 33 s</t>
         </is>
       </c>
-      <c r="F2" s="9" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>7,16</t>
         </is>
       </c>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="10" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="8">
-      <c r="A3" s="9" t="inlineStr">
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="7" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="5">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Abbas</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Zina</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>5 min 15 s</t>
         </is>
       </c>
-      <c r="F3" s="9" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>7,28</t>
         </is>
       </c>
-      <c r="G3" s="9" t="n"/>
-      <c r="H3" s="10" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="8">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="5">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Abdel Moneim</t>
         </is>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Yasmine</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>7 min 22 s</t>
         </is>
       </c>
-      <c r="F4" s="9" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G4" s="9" t="n"/>
-      <c r="H4" s="10" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="8">
-      <c r="A5" s="9" t="inlineStr">
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="5">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Abdelali</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>Yasmine</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>7 min 44 s</t>
         </is>
       </c>
-      <c r="F5" s="9" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G5" s="9" t="n"/>
-      <c r="H5" s="10" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="8">
-      <c r="A6" s="11" t="inlineStr">
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="5">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Abdallah</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Aboubaker</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E6" s="11" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t>7 min 57 s</t>
         </is>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G6" s="11" t="n"/>
-      <c r="H6" s="12" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="8">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="G6" s="8" t="n"/>
+      <c r="H6" s="9" t="n"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="5">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Abdelgow</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>Hassan Mahamat</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>23 min 37 s</t>
         </is>
       </c>
-      <c r="F7" s="9" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>7,52</t>
         </is>
       </c>
-      <c r="G7" s="9" t="n"/>
-      <c r="H7" s="10" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="8">
-      <c r="A8" s="9" t="inlineStr">
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="7" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="5">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Abdelhadi</t>
         </is>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Nouh</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>9 min 27 s</t>
         </is>
       </c>
-      <c r="F8" s="9" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>7,35</t>
         </is>
       </c>
-      <c r="G8" s="9" t="n"/>
-      <c r="H8" s="10" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="8">
-      <c r="A9" s="9" t="inlineStr">
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="7" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="5">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>Abdenbaoui</t>
         </is>
       </c>
-      <c r="B9" s="9" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Iness</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>iness.abdenbaoui@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>10 min 33 s</t>
         </is>
       </c>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F9" s="6" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G9" s="9" t="n"/>
-      <c r="H9" s="10" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="8">
-      <c r="A10" s="9" t="inlineStr">
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="5">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Abdulhoussen</t>
         </is>
       </c>
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>Houzefa</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>houzefa.abdulhoussen@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>5 min 49 s</t>
         </is>
       </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G10" s="9" t="n"/>
-      <c r="H10" s="10" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="8">
-      <c r="A11" s="9" t="inlineStr">
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="7" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="5">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>Abed Meraim</t>
         </is>
       </c>
-      <c r="B11" s="9" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>Zakaria</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>20221641@etud.univ-evry.fr</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>9 min 14 s</t>
         </is>
       </c>
-      <c r="F11" s="9" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t>7,70</t>
         </is>
       </c>
-      <c r="G11" s="9" t="n"/>
-      <c r="H11" s="9" t="n"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="8">
-      <c r="A12" s="9" t="inlineStr">
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="6" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="5">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>Rodolphe</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>rodolphe.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
         <is>
           <t>15 min 32 s</t>
         </is>
       </c>
-      <c r="F12" s="9" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
-      <c r="G12" s="9" t="n"/>
-      <c r="H12" s="9" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="8">
-      <c r="A13" s="9" t="inlineStr">
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="6" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="5">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B13" s="9" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>Christian</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>christian.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E13" s="9" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>21 min 49 s</t>
         </is>
       </c>
-      <c r="F13" s="9" t="inlineStr">
+      <c r="F13" s="6" t="inlineStr">
         <is>
           <t>6,72</t>
         </is>
       </c>
-      <c r="G13" s="9" t="n"/>
-      <c r="H13" s="9" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="8">
-      <c r="A14" s="11" t="inlineStr">
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="5">
+      <c r="A14" s="8" t="inlineStr">
         <is>
           <t>Abdelkarim</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Yacine</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D14" s="11" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E14" s="11" t="inlineStr">
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="inlineStr">
         <is>
           <t>4 min 17 s</t>
         </is>
       </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
-      <c r="G14" s="13" t="n"/>
-      <c r="H14" s="13" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="8">
-      <c r="B15" s="7">
+      <c r="G14" s="10" t="n"/>
+      <c r="H14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="5">
+      <c r="B15" s="4">
         <f>F13+F14</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1" s="8"/>
-    <row r="17" ht="13.5" customHeight="1" s="8"/>
+    <row r="16" ht="13.5" customHeight="1" s="5"/>
+    <row r="17" ht="13.5" customHeight="1" s="5"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -904,498 +892,498 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="8.550000000000001" customWidth="1" style="7" min="1" max="8"/>
+    <col width="8.550000000000001" customWidth="1" style="4" min="1" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="8">
-      <c r="A1" s="9" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Nom</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Prénom</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Adresse de courriel</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>État</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Temps utilisé</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Note/10,00</t>
         </is>
       </c>
-      <c r="G1" s="9" t="n"/>
-      <c r="H1" s="10" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="8">
-      <c r="A2" s="9" t="inlineStr">
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="7" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="5">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Aatif Mieulet</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Paola</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>8 min 33 s</t>
         </is>
       </c>
-      <c r="F2" s="9" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>7,16</t>
         </is>
       </c>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="10" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="8">
-      <c r="A3" s="9" t="inlineStr">
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="7" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="5">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Abbas</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Zina</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>5 min 15 s</t>
         </is>
       </c>
-      <c r="F3" s="9" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>7,28</t>
         </is>
       </c>
-      <c r="G3" s="9" t="n"/>
-      <c r="H3" s="10" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="8">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="5">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Abdel Moneim</t>
         </is>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Yasmine</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>7 min 22 s</t>
         </is>
       </c>
-      <c r="F4" s="9" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G4" s="9" t="n"/>
-      <c r="H4" s="10" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="8">
-      <c r="A5" s="9" t="inlineStr">
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="5">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Abdelali</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>Yasmine</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>7 min 44 s</t>
         </is>
       </c>
-      <c r="F5" s="9" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G5" s="9" t="n"/>
-      <c r="H5" s="10" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="8">
-      <c r="A6" s="11" t="inlineStr">
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="5">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Abdallah</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Aboubaker</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E6" s="11" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t>7 min 57 s</t>
         </is>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G6" s="11" t="n"/>
-      <c r="H6" s="12" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="8">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="G6" s="8" t="n"/>
+      <c r="H6" s="9" t="n"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="5">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Abdelgow</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>Hassan Mahamat</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>23 min 37 s</t>
         </is>
       </c>
-      <c r="F7" s="9" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>7,52</t>
         </is>
       </c>
-      <c r="G7" s="9" t="n"/>
-      <c r="H7" s="10" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="8">
-      <c r="A8" s="9" t="inlineStr">
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="7" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="5">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Abdelhadi</t>
         </is>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Nouh</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>9 min 27 s</t>
         </is>
       </c>
-      <c r="F8" s="9" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>7,35</t>
         </is>
       </c>
-      <c r="G8" s="9" t="n"/>
-      <c r="H8" s="10" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="8">
-      <c r="A9" s="9" t="inlineStr">
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="7" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="5">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>Abdenbaoui</t>
         </is>
       </c>
-      <c r="B9" s="9" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Iness</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>iness.abdenbaoui@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>10 min 33 s</t>
         </is>
       </c>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F9" s="6" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G9" s="9" t="n"/>
-      <c r="H9" s="10" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="8">
-      <c r="A10" s="9" t="inlineStr">
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="5">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Abdulhoussen</t>
         </is>
       </c>
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>Houzefa</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>houzefa.abdulhoussen@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>5 min 49 s</t>
         </is>
       </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G10" s="9" t="n"/>
-      <c r="H10" s="10" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="8">
-      <c r="A11" s="9" t="inlineStr">
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="7" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="5">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>Abed Meraim</t>
         </is>
       </c>
-      <c r="B11" s="9" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>Zakaria</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>20221641@etud.univ-evry.fr</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>9 min 14 s</t>
         </is>
       </c>
-      <c r="F11" s="9" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t>7,70</t>
         </is>
       </c>
-      <c r="G11" s="9" t="n"/>
-      <c r="H11" s="9" t="n"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="8">
-      <c r="A12" s="9" t="inlineStr">
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="6" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="5">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>Rodolphe</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>rodolphe.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
         <is>
           <t>15 min 32 s</t>
         </is>
       </c>
-      <c r="F12" s="9" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
-      <c r="G12" s="9" t="n"/>
-      <c r="H12" s="9" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="8">
-      <c r="A13" s="9" t="inlineStr">
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="6" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="5">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B13" s="9" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>Christian</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>christian.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E13" s="9" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>21 min 49 s</t>
         </is>
       </c>
-      <c r="F13" s="9" t="inlineStr">
+      <c r="F13" s="6" t="inlineStr">
         <is>
           <t>6,72</t>
         </is>
       </c>
-      <c r="G13" s="9" t="n"/>
-      <c r="H13" s="9" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="8">
-      <c r="A14" s="11" t="inlineStr">
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="5">
+      <c r="A14" s="8" t="inlineStr">
         <is>
           <t>Abdelkarim</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Yacine</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D14" s="11" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E14" s="11" t="inlineStr">
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="inlineStr">
         <is>
           <t>4 min 17 s</t>
         </is>
       </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
-      <c r="G14" s="13" t="n"/>
-      <c r="H14" s="13" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="8">
-      <c r="B15" s="7">
+      <c r="G14" s="10" t="n"/>
+      <c r="H14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="5">
+      <c r="B15" s="4">
         <f>F13+F14</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1" s="8"/>
-    <row r="17" ht="13.5" customHeight="1" s="8"/>
+    <row r="16" ht="13.5" customHeight="1" s="5"/>
+    <row r="17" ht="13.5" customHeight="1" s="5"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1420,498 +1408,498 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="8.550000000000001" customWidth="1" style="7" min="1" max="8"/>
+    <col width="8.550000000000001" customWidth="1" style="4" min="1" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="8">
-      <c r="A1" s="9" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Nom</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Prénom</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Adresse de courriel</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>État</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Temps utilisé</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Note/10,00</t>
         </is>
       </c>
-      <c r="G1" s="9" t="n"/>
-      <c r="H1" s="10" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="8">
-      <c r="A2" s="9" t="inlineStr">
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="7" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="5">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Aatif Mieulet</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Paola</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>8 min 33 s</t>
         </is>
       </c>
-      <c r="F2" s="9" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>7,16</t>
         </is>
       </c>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="10" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="8">
-      <c r="A3" s="9" t="inlineStr">
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="7" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="5">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Abbas</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Zina</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>5 min 15 s</t>
         </is>
       </c>
-      <c r="F3" s="9" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>7,28</t>
         </is>
       </c>
-      <c r="G3" s="9" t="n"/>
-      <c r="H3" s="10" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="8">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="5">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Abdel Moneim</t>
         </is>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Yasmine</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>7 min 22 s</t>
         </is>
       </c>
-      <c r="F4" s="9" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G4" s="9" t="n"/>
-      <c r="H4" s="10" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="8">
-      <c r="A5" s="9" t="inlineStr">
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="5">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Abdelali</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>Yasmine</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>7 min 44 s</t>
         </is>
       </c>
-      <c r="F5" s="9" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G5" s="9" t="n"/>
-      <c r="H5" s="10" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="8">
-      <c r="A6" s="11" t="inlineStr">
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="5">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Abdallah</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Aboubaker</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E6" s="11" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t>7 min 57 s</t>
         </is>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G6" s="11" t="n"/>
-      <c r="H6" s="12" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="8">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="G6" s="8" t="n"/>
+      <c r="H6" s="9" t="n"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="5">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Abdelgow</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>Hassan Mahamat</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>23 min 37 s</t>
         </is>
       </c>
-      <c r="F7" s="9" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>7,52</t>
         </is>
       </c>
-      <c r="G7" s="9" t="n"/>
-      <c r="H7" s="10" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="8">
-      <c r="A8" s="9" t="inlineStr">
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="7" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="5">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Abdelhadi</t>
         </is>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Nouh</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>9 min 27 s</t>
         </is>
       </c>
-      <c r="F8" s="9" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>7,35</t>
         </is>
       </c>
-      <c r="G8" s="9" t="n"/>
-      <c r="H8" s="10" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="8">
-      <c r="A9" s="9" t="inlineStr">
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="7" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="5">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>Abdenbaoui</t>
         </is>
       </c>
-      <c r="B9" s="9" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Iness</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>iness.abdenbaoui@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>10 min 33 s</t>
         </is>
       </c>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F9" s="6" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G9" s="9" t="n"/>
-      <c r="H9" s="10" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="8">
-      <c r="A10" s="9" t="inlineStr">
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="5">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Abdulhoussen</t>
         </is>
       </c>
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>Houzefa</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>houzefa.abdulhoussen@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>5 min 49 s</t>
         </is>
       </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G10" s="9" t="n"/>
-      <c r="H10" s="10" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="8">
-      <c r="A11" s="9" t="inlineStr">
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="7" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="5">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>Abed Meraim</t>
         </is>
       </c>
-      <c r="B11" s="9" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>Zakaria</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>20221641@etud.univ-evry.fr</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>9 min 14 s</t>
         </is>
       </c>
-      <c r="F11" s="9" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t>7,70</t>
         </is>
       </c>
-      <c r="G11" s="9" t="n"/>
-      <c r="H11" s="9" t="n"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="8">
-      <c r="A12" s="9" t="inlineStr">
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="6" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="5">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>Rodolphe</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>rodolphe.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
         <is>
           <t>15 min 32 s</t>
         </is>
       </c>
-      <c r="F12" s="9" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
-      <c r="G12" s="9" t="n"/>
-      <c r="H12" s="9" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="8">
-      <c r="A13" s="9" t="inlineStr">
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="6" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="5">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B13" s="9" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>Christian</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>christian.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E13" s="9" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>21 min 49 s</t>
         </is>
       </c>
-      <c r="F13" s="9" t="inlineStr">
+      <c r="F13" s="6" t="inlineStr">
         <is>
           <t>6,72</t>
         </is>
       </c>
-      <c r="G13" s="9" t="n"/>
-      <c r="H13" s="9" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="8">
-      <c r="A14" s="11" t="inlineStr">
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="5">
+      <c r="A14" s="8" t="inlineStr">
         <is>
           <t>Abdelkarim</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Yacine</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D14" s="11" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E14" s="11" t="inlineStr">
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="inlineStr">
         <is>
           <t>4 min 17 s</t>
         </is>
       </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
-      <c r="G14" s="13" t="n"/>
-      <c r="H14" s="13" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="8">
-      <c r="B15" s="7">
+      <c r="G14" s="10" t="n"/>
+      <c r="H14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="5">
+      <c r="B15" s="4">
         <f>F13+F14</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1" s="8"/>
-    <row r="17" ht="13.5" customHeight="1" s="8"/>
+    <row r="16" ht="13.5" customHeight="1" s="5"/>
+    <row r="17" ht="13.5" customHeight="1" s="5"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1935,502 +1923,502 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="8">
-      <c r="A1" s="9" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Nom</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Prénom</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Adresse de courriel</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>État</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Temps utilisé</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Note/10,00</t>
         </is>
       </c>
-      <c r="G1" s="9" t="n"/>
-      <c r="H1" s="10" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="8">
-      <c r="A2" s="9" t="inlineStr">
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="7" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="5">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Aatif Mieulet</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Paola</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>8 min 33 s</t>
         </is>
       </c>
-      <c r="F2" s="9" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>7,16</t>
         </is>
       </c>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="10" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="8">
-      <c r="A3" s="9" t="inlineStr">
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="7" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="5">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Abbas</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Zina</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>5 min 15 s</t>
         </is>
       </c>
-      <c r="F3" s="9" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>7,28</t>
         </is>
       </c>
-      <c r="G3" s="9" t="n"/>
-      <c r="H3" s="10" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="8">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="5">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Abdel Moneim</t>
         </is>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Yasmine</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>7 min 22 s</t>
         </is>
       </c>
-      <c r="F4" s="9" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G4" s="9" t="n"/>
-      <c r="H4" s="10" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="8">
-      <c r="A5" s="9" t="inlineStr">
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="5">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Abdelali</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>Yasmine</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>7 min 44 s</t>
         </is>
       </c>
-      <c r="F5" s="9" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G5" s="9" t="n"/>
-      <c r="H5" s="10" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="8">
-      <c r="A6" s="9" t="inlineStr">
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="5">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Abdallah</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Aboubaker</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>7 min 57 s</t>
         </is>
       </c>
-      <c r="F6" s="9" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G6" s="9" t="n"/>
-      <c r="H6" s="10" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="8">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="7" t="n"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="5">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Abdelgow</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>Hassan Mahamat</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>23 min 37 s</t>
         </is>
       </c>
-      <c r="F7" s="9" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>7,52</t>
         </is>
       </c>
-      <c r="G7" s="9" t="n"/>
-      <c r="H7" s="10" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="8">
-      <c r="A8" s="9" t="inlineStr">
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="7" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="5">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Abdelhadi</t>
         </is>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Nouh</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>9 min 27 s</t>
         </is>
       </c>
-      <c r="F8" s="9" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>7,35</t>
         </is>
       </c>
-      <c r="G8" s="9" t="n"/>
-      <c r="H8" s="10" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="8">
-      <c r="A9" s="9" t="inlineStr">
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="7" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="5">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>Abdenbaoui</t>
         </is>
       </c>
-      <c r="B9" s="9" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Iness</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>iness.abdenbaoui@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>10 min 33 s</t>
         </is>
       </c>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F9" s="6" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G9" s="9" t="n"/>
-      <c r="H9" s="10" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="8">
-      <c r="A10" s="9" t="inlineStr">
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="5">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Abdulhoussen</t>
         </is>
       </c>
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>Houzefa</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>houzefa.abdulhoussen@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>5 min 49 s</t>
         </is>
       </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G10" s="9" t="n"/>
-      <c r="H10" s="10" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="8">
-      <c r="A11" s="9" t="inlineStr">
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="7" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="5">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>Abed Meraim</t>
         </is>
       </c>
-      <c r="B11" s="9" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>Zakaria</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>20221641@etud.univ-evry.fr</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>9 min 14 s</t>
         </is>
       </c>
-      <c r="F11" s="9" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t>7,70</t>
         </is>
       </c>
-      <c r="G11" s="9" t="n"/>
-      <c r="H11" s="9" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="8">
-      <c r="A12" s="9" t="inlineStr">
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="6" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="5">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>Rodolphe</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>rodolphe.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
         <is>
           <t>15 min 32 s</t>
         </is>
       </c>
-      <c r="F12" s="9" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
-      <c r="G12" s="9" t="n"/>
-      <c r="H12" s="9" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="8">
-      <c r="A13" s="9" t="inlineStr">
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="6" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="5">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B13" s="9" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>Christian</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>christian.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E13" s="9" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>21 min 49 s</t>
         </is>
       </c>
-      <c r="F13" s="9" t="inlineStr">
+      <c r="F13" s="6" t="inlineStr">
         <is>
           <t>6,72</t>
         </is>
       </c>
-      <c r="G13" s="9" t="n"/>
-      <c r="H13" s="9" t="n"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" s="8">
-      <c r="A14" s="9" t="inlineStr">
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="5">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>Abdelkarim</t>
         </is>
       </c>
-      <c r="B14" s="9" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>Yacine</t>
         </is>
       </c>
-      <c r="C14" s="9" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E14" s="9" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
         <is>
           <t>4 min 17 s</t>
         </is>
       </c>
-      <c r="F14" s="9" t="inlineStr">
+      <c r="F14" s="6" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="8">
-      <c r="B15" s="7">
+    <row r="15" ht="15" customHeight="1" s="5">
+      <c r="B15" s="4">
         <f>F13+F14</f>
         <v/>
       </c>
     </row>
-    <row r="1048567" ht="12.75" customHeight="1" s="8"/>
-    <row r="1048568" ht="12.75" customHeight="1" s="8"/>
-    <row r="1048569" ht="12.75" customHeight="1" s="8"/>
-    <row r="1048570" ht="12.75" customHeight="1" s="8"/>
-    <row r="1048571" ht="12.75" customHeight="1" s="8"/>
-    <row r="1048572" ht="12.75" customHeight="1" s="8"/>
-    <row r="1048573" ht="12.75" customHeight="1" s="8"/>
-    <row r="1048574" ht="12.75" customHeight="1" s="8"/>
-    <row r="1048575" ht="12.75" customHeight="1" s="8"/>
-    <row r="1048576" ht="12.75" customHeight="1" s="8"/>
+    <row r="1048567" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048568" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048569" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048570" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048571" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048572" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048573" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048574" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048575" ht="12.75" customHeight="1" s="5"/>
+    <row r="1048576" ht="12.75" customHeight="1" s="5"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2447,556 +2435,556 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="8.550000000000001" customWidth="1" style="7" min="1" max="8"/>
+    <col width="8.550000000000001" customWidth="1" style="4" min="1" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="8">
-      <c r="A1" s="9" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Nom</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Prénom</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Adresse de courriel</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>État</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Temps utilisé</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Note/10,00</t>
         </is>
       </c>
-      <c r="G1" s="9" t="n"/>
-      <c r="H1" s="10" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="8">
-      <c r="A2" s="9" t="inlineStr">
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="7" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="5">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Aatif Mieulet</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Paola</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>8 min 33 s</t>
         </is>
       </c>
-      <c r="F2" s="9" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>7,16</t>
         </is>
       </c>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="10" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="8">
-      <c r="A3" s="9" t="inlineStr">
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="7" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="5">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Abbas</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Zina</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>5 min 15 s</t>
         </is>
       </c>
-      <c r="F3" s="9" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>7,28</t>
         </is>
       </c>
-      <c r="G3" s="9" t="n"/>
-      <c r="H3" s="10" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="8">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="5">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Abdel Moneim</t>
         </is>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Yasmine</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>7 min 22 s</t>
         </is>
       </c>
-      <c r="F4" s="9" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G4" s="9" t="n"/>
-      <c r="H4" s="10" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="8">
-      <c r="A5" s="9" t="inlineStr">
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="5">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Abdallah</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>Aboubaker</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>7 min 57 s</t>
         </is>
       </c>
-      <c r="F5" s="9" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G5" s="9" t="n"/>
-      <c r="H5" s="10" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="8">
-      <c r="A6" s="9" t="inlineStr">
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="5">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Abdelali</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Yasmine</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>7 min 44 s</t>
         </is>
       </c>
-      <c r="F6" s="9" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G6" s="9" t="n"/>
-      <c r="H6" s="10" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="8">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="7" t="n"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="5">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Abdallah</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>Aboubaker</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>7 min 57 s</t>
         </is>
       </c>
-      <c r="F7" s="9" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G7" s="9" t="n"/>
-      <c r="H7" s="10" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="8">
-      <c r="A8" s="9" t="inlineStr">
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="7" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="5">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Abdelgow</t>
         </is>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Hassan Mahamat</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>23 min 37 s</t>
         </is>
       </c>
-      <c r="F8" s="9" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>7,52</t>
         </is>
       </c>
-      <c r="G8" s="9" t="n"/>
-      <c r="H8" s="10" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="8">
-      <c r="A9" s="9" t="inlineStr">
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="7" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="5">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>Abdelhadi</t>
         </is>
       </c>
-      <c r="B9" s="9" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Nouh</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>9 min 27 s</t>
         </is>
       </c>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F9" s="6" t="inlineStr">
         <is>
           <t>7,35</t>
         </is>
       </c>
-      <c r="G9" s="9" t="n"/>
-      <c r="H9" s="10" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="8">
-      <c r="A10" s="9" t="inlineStr">
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="5">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Abdenbaoui</t>
         </is>
       </c>
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>Iness</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>iness.abdenbaoui@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>10 min 33 s</t>
         </is>
       </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G10" s="9" t="n"/>
-      <c r="H10" s="10" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="8">
-      <c r="A11" s="9" t="inlineStr">
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="7" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="5">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>Abdulhoussen</t>
         </is>
       </c>
-      <c r="B11" s="9" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>Houzefa</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>houzefa.abdulhoussen@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>5 min 49 s</t>
         </is>
       </c>
-      <c r="F11" s="9" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G11" s="9" t="n"/>
-      <c r="H11" s="10" t="n"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="8">
-      <c r="A12" s="9" t="inlineStr">
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="7" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="5">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Abdelkarim</t>
         </is>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>Yacine</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
         <is>
           <t>4 min 17 s</t>
         </is>
       </c>
-      <c r="F12" s="9" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="8">
-      <c r="A13" s="9" t="inlineStr">
+    <row r="13" ht="15" customHeight="1" s="5">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>Abed Meraim</t>
         </is>
       </c>
-      <c r="B13" s="9" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>Zakaria</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>20221641@etud.univ-evry.fr</t>
         </is>
       </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E13" s="9" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>9 min 14 s</t>
         </is>
       </c>
-      <c r="F13" s="9" t="inlineStr">
+      <c r="F13" s="6" t="inlineStr">
         <is>
           <t>7,70</t>
         </is>
       </c>
-      <c r="G13" s="9" t="n"/>
-      <c r="H13" s="9" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="8">
-      <c r="A14" s="9" t="inlineStr">
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="5">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B14" s="9" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>Rodolphe</t>
         </is>
       </c>
-      <c r="C14" s="9" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>rodolphe.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E14" s="9" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
         <is>
           <t>15 min 32 s</t>
         </is>
       </c>
-      <c r="F14" s="9" t="inlineStr">
+      <c r="F14" s="6" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
-      <c r="G14" s="9" t="n"/>
-      <c r="H14" s="9" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="8">
-      <c r="A15" s="9" t="inlineStr">
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="6" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="5">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B15" s="9" t="inlineStr">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>Christian</t>
         </is>
       </c>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>christian.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
         <is>
           <t>21 min 49 s</t>
         </is>
       </c>
-      <c r="F15" s="9" t="inlineStr">
+      <c r="F15" s="6" t="inlineStr">
         <is>
           <t>6,72</t>
         </is>
       </c>
-      <c r="G15" s="9" t="n"/>
-      <c r="H15" s="9" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="8">
-      <c r="A16" s="9" t="inlineStr">
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" s="6" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="5">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>Abdelkarim</t>
         </is>
       </c>
-      <c r="B16" s="9" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>Yacine</t>
         </is>
       </c>
-      <c r="C16" s="9" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E16" s="9" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
         <is>
           <t>4 min 17 s</t>
         </is>
       </c>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="F16" s="6" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="13.5" customHeight="1" s="8">
-      <c r="B17" s="7">
+    <row r="17" ht="13.5" customHeight="1" s="5">
+      <c r="B17" s="4">
         <f>F15+F16</f>
         <v/>
       </c>

--- a/fichiers_xls/test_doublons.xlsx
+++ b/fichiers_xls/test_doublons.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sheet3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="result" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="to_copy" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="to_copy" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
